--- a/database.xlsx
+++ b/database.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
